--- a/test/scripting/scriptingmemory/convosLogicHookCollision/product.scriptingmemory.xlsx
+++ b/test/scripting/scriptingmemory/convosLogicHookCollision/product.scriptingmemory.xlsx
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Wiener Schnitzel</t>
   </si>
   <si>
-    <t>Pfannkuchen</t>
-  </si>
-  <si>
     <t>product1</t>
-  </si>
-  <si>
-    <t>product2</t>
   </si>
   <si>
     <t>$productName</t>
@@ -363,33 +357,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
